--- a/internal/message flows.xlsx
+++ b/internal/message flows.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="21900" yWindow="1580" windowWidth="25840" windowHeight="20380" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="1.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="MFBAuthN" sheetId="1" r:id="rId1"/>
+    <sheet name="MFB-Enc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="47">
   <si>
     <t>SP</t>
   </si>
@@ -48,9 +49,6 @@
     <t>Web SSO &lt;Response&gt;</t>
   </si>
   <si>
-    <t>Artifact Resolution</t>
-  </si>
-  <si>
     <t>Enhanced Client/Proxy SSO</t>
   </si>
   <si>
@@ -90,15 +88,9 @@
     <t>Assertion signature</t>
   </si>
   <si>
-    <t>RequirementID</t>
-  </si>
-  <si>
     <t>Response signature</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Web SSO unsolicited &lt;Response&gt;</t>
   </si>
   <si>
@@ -136,6 +128,39 @@
   </si>
   <si>
     <t>Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO IDP-initiated &lt;LogoutResponse&gt; </t>
+  </si>
+  <si>
+    <t>405, 410, 414</t>
+  </si>
+  <si>
+    <t>274, 290</t>
+  </si>
+  <si>
+    <t>Artifact Resolution Request and Response</t>
+  </si>
+  <si>
+    <t>323,330,333</t>
+  </si>
+  <si>
+    <t>Holder-of-Key</t>
+  </si>
+  <si>
+    <t>RequID</t>
+  </si>
+  <si>
+    <t>Message Encryption</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>NameID</t>
+  </si>
+  <si>
+    <t>Attribute</t>
   </si>
 </sst>
 </file>
@@ -195,7 +220,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -333,8 +358,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -355,8 +446,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="203">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -425,6 +519,39 @@
     <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -493,6 +620,39 @@
     <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -825,7 +985,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -840,28 +1000,28 @@
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -879,10 +1039,17 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>241</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
@@ -894,19 +1061,22 @@
         <v>MFB-002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -919,16 +1089,23 @@
         <v>MFB-003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
@@ -943,13 +1120,20 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
@@ -961,19 +1145,22 @@
         <v>MFB-005</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -986,19 +1173,22 @@
         <v>MFB-006</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1011,19 +1201,22 @@
         <v>MFB-007</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1036,16 +1229,23 @@
         <v>MFB-008</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
@@ -1057,19 +1257,22 @@
         <v>MFB-009</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1082,19 +1285,22 @@
         <v>MFB-010</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1107,19 +1313,22 @@
         <v>MFB-011</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1132,13 +1341,23 @@
         <v>MFB-012</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
@@ -1150,13 +1369,23 @@
         <v>MFB-013</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
@@ -1168,13 +1397,23 @@
         <v>MFB-014</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
@@ -1186,13 +1425,23 @@
         <v>MFB-015</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
@@ -1204,13 +1453,23 @@
         <v>MFB-016</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
@@ -1222,13 +1481,23 @@
         <v>MFB-017</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
@@ -1240,22 +1509,22 @@
         <v>MFB-018</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1268,13 +1537,13 @@
         <v>MFB-019</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>1</v>
@@ -1282,8 +1551,8 @@
       <c r="G20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>34</v>
+      <c r="H20" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1296,22 +1565,13 @@
         <v>MFB-020</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1324,22 +1584,10 @@
         <v>MFB-021</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1351,23 +1599,11 @@
         <f t="shared" si="2"/>
         <v>MFB-022</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1380,22 +1616,10 @@
         <v>MFB-023</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1408,19 +1632,10 @@
         <v>MFB-024</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1433,19 +1648,10 @@
         <v>MFB-025</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1458,13 +1664,11 @@
         <v>MFB-026</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
@@ -1475,10 +1679,12 @@
         <f t="shared" si="2"/>
         <v>MFB-027</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="1"/>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
@@ -1489,10 +1695,9 @@
         <f t="shared" si="2"/>
         <v>MFB-028</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="1"/>
+      <c r="C29" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
@@ -1503,10 +1708,6 @@
         <f t="shared" si="2"/>
         <v>MFB-029</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
@@ -1517,13 +1718,6 @@
         <f t="shared" si="2"/>
         <v>MFB-030</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:8">
@@ -1535,12 +1729,6 @@
         <f t="shared" si="2"/>
         <v>MFB-031</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
     </row>
@@ -1553,12 +1741,6 @@
         <f t="shared" si="2"/>
         <v>MFB-032</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
@@ -1571,8 +1753,6 @@
         <f t="shared" ref="B34:B35" si="5">CONCATENATE("MFB-0",A34)</f>
         <v>MFB-033</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
@@ -1585,10 +1765,144 @@
         <f t="shared" si="5"/>
         <v>MFB-034</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I4" sqref="B1:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" customHeight="1">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>CONCATENATE("MFB-",A2)</f>
+        <v>MFB-100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A4" si="0">A2+1</f>
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>CONCATENATE("MFB-",A3)</f>
+        <v>MFB-101</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>CONCATENATE("MFB-",A4)</f>
+        <v>MFB-102</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7">
+        <v>293</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/internal/message flows.xlsx
+++ b/internal/message flows.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="1580" windowWidth="25840" windowHeight="20380" tabRatio="500"/>
+    <workbookView xWindow="23380" yWindow="1420" windowWidth="25840" windowHeight="20380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="MFBAuthN" sheetId="1" r:id="rId1"/>
-    <sheet name="MFB-Enc" sheetId="2" r:id="rId2"/>
+    <sheet name="Impl-MFBAuthN" sheetId="1" r:id="rId1"/>
+    <sheet name="Impl-MFB-Enc" sheetId="2" r:id="rId2"/>
+    <sheet name="Depl-MFB-Authn" sheetId="3" r:id="rId3"/>
+    <sheet name="Depl-MFB-Enc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="71">
   <si>
     <t>SP</t>
   </si>
@@ -37,9 +39,6 @@
     <t>SOAP</t>
   </si>
   <si>
-    <t>Identity Provider Discovery</t>
-  </si>
-  <si>
     <t>(cookie)</t>
   </si>
   <si>
@@ -76,9 +75,6 @@
     <t>TLS</t>
   </si>
   <si>
-    <t>Attribute Query</t>
-  </si>
-  <si>
     <t>IDP</t>
   </si>
   <si>
@@ -154,20 +150,98 @@
     <t>Message Encryption</t>
   </si>
   <si>
-    <t>Assertion</t>
-  </si>
-  <si>
     <t>NameID</t>
   </si>
   <si>
     <t>Attribute</t>
+  </si>
+  <si>
+    <t>SHOULD</t>
+  </si>
+  <si>
+    <t>8.1 (3)</t>
+  </si>
+  <si>
+    <t>8.1 (1)</t>
+  </si>
+  <si>
+    <t>IDP Discovery</t>
+  </si>
+  <si>
+    <t>SAML specification</t>
+  </si>
+  <si>
+    <t>[SAML2Prof] sect. 4.1</t>
+  </si>
+  <si>
+    <t>[SAML2Prof] sect. 4.1.5</t>
+  </si>
+  <si>
+    <t>[IdPDisco]  sect. 2.4.1</t>
+  </si>
+  <si>
+    <t>[SAML2Prof] sect. 5</t>
+  </si>
+  <si>
+    <t>[SAML2Prof] sect. 4.4</t>
+  </si>
+  <si>
+    <t>[SAML2Prof] sect. 4.5</t>
+  </si>
+  <si>
+    <t>[SAML2Prof] sect. 4.2</t>
+  </si>
+  <si>
+    <t>[SAML-ReqInit]</t>
+  </si>
+  <si>
+    <t>Assertion Query &lt;AttributeQuery&gt;</t>
+  </si>
+  <si>
+    <t>[SAML2Prof] sect. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;EncryptedID&gt; </t>
+  </si>
+  <si>
+    <t>HTTP Redirect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO &lt;LogoutRequest&gt; </t>
+  </si>
+  <si>
+    <t>&lt;EncryptedAssertion&gt;</t>
+  </si>
+  <si>
+    <t>&lt;EncryptedID&gt;</t>
+  </si>
+  <si>
+    <t>Web SSO &lt;Response&gt;, no TLS</t>
+  </si>
+  <si>
+    <t>9.1 (2)</t>
+  </si>
+  <si>
+    <t>SHOULD NOT</t>
+  </si>
+  <si>
+    <t>&lt;EncryptedAttribute&gt;</t>
+  </si>
+  <si>
+    <t>9.1 (1) + (3)</t>
+  </si>
+  <si>
+    <t>9.1 (4)</t>
+  </si>
+  <si>
+    <t>ACS in metadata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +276,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,7 +299,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -424,8 +503,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,8 +632,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="307">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -552,6 +738,58 @@
     <cellStyle name="Besuchter Link" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -653,6 +891,58 @@
     <cellStyle name="Link" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -982,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showRuler="0" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -993,780 +1283,864 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="5" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>CONCATENATE("IMFB-00",A2)</f>
+        <v>IMFB-001</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A17" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B10" si="1">CONCATENATE("IMFB-00",A3)</f>
+        <v>IMFB-002</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>IMFB-003</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>IMFB-004</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>IMFB-005</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>IMFB-006</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>IMFB-007</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>IMFB-008</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>IMFB-009</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>CONCATENATE("IMFB-0",A11)</f>
+        <v>IMFB-010</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <f t="shared" ref="A12:A13" si="2">A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" ref="B12:B35" si="3">CONCATENATE("IMFB-0",A12)</f>
+        <v>IMFB-011</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IMFB-012</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IMFB-013</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IMFB-014</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IMFB-015</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B9" si="0">CONCATENATE("MFB-00",A2)</f>
-        <v>MFB-001</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="G16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A17" si="1">A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="str">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>MFB-002</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MFB-003</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IMFB-016</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MFB-004</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MFB-005</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MFB-006</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MFB-007</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MFB-008</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f>CONCATENATE("MFB-00",A10)</f>
-        <v>MFB-009</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f t="shared" ref="B11:B33" si="2">CONCATENATE("MFB-0",A11)</f>
-        <v>MFB-010</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <f t="shared" ref="A12:A13" si="3">A11+1</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-011</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-012</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-013</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-014</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-015</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-016</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <f t="shared" ref="A18:A35" si="4">A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-017</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-017</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>1</v>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-018</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-018</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>1</v>
+      <c r="F19" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-019</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-019</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>1</v>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-020</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-020</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-021</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-021</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-022</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-022</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-023</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-023</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-024</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-024</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-025</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-025</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-026</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-026</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-027</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-027</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-028</v>
+        <f t="shared" si="3"/>
+        <v>IMFB-028</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>IMFB-029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-030</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>IMFB-030</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-031</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+        <f t="shared" si="3"/>
+        <v>IMFB-031</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MFB-032</v>
-      </c>
-      <c r="E33" s="1"/>
+        <f t="shared" si="3"/>
+        <v>IMFB-032</v>
+      </c>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f t="shared" ref="B34:B35" si="5">CONCATENATE("MFB-0",A34)</f>
-        <v>MFB-033</v>
-      </c>
-      <c r="E34" s="1"/>
+        <f t="shared" si="3"/>
+        <v>IMFB-033</v>
+      </c>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>MFB-034</v>
-      </c>
-      <c r="E35" s="1"/>
+        <f t="shared" si="3"/>
+        <v>IMFB-034</v>
+      </c>
       <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1781,62 +2155,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I4" sqref="B1:I4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>CONCATENATE("MFB-",A2)</f>
-        <v>MFB-100</v>
+        <f>CONCATENATE("IMFB-",A2)</f>
+        <v>IMFB-100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
@@ -1854,23 +2227,23 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>CONCATENATE("MFB-",A3)</f>
-        <v>MFB-101</v>
+        <f>CONCATENATE("IMFB-",A3)</f>
+        <v>IMFB-101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="7">
         <v>293</v>
@@ -1882,27 +2255,531 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>CONCATENATE("MFB-",A4)</f>
-        <v>MFB-102</v>
+        <f>CONCATENATE("IMFB-",A4)</f>
+        <v>IMFB-102</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="7">
         <v>293</v>
       </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5" si="1">A4+1</f>
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>CONCATENATE("IMFB-",A5)</f>
+        <v>IMFB-103</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>CONCATENATE("DMFB-00",A2)</f>
+        <v>DMFB-001</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B9" si="0">CONCATENATE("DMFB-00",A3)</f>
+        <v>DMFB-002</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A9" si="1">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DMFB-003</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DMFB-004</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DMFB-005</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DMFB-006</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DMFB-007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <f t="shared" ref="A9" si="2">A8+1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DMFB-008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>CONCATENATE("DMFB-00",A2)</f>
+        <v>DMFB-00100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B6" si="0">CONCATENATE("DMFB-00",A3)</f>
+        <v>DMFB-00101</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A6" si="1">A3+1</f>
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DMFB-00102</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DMFB-00103</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DMFB-00104</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/internal/message flows.xlsx
+++ b/internal/message flows.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23380" yWindow="1420" windowWidth="25840" windowHeight="20380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="23380" yWindow="1420" windowWidth="25840" windowHeight="20380" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Impl-MFBAuthN" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="76">
   <si>
     <t>SP</t>
   </si>
@@ -213,21 +213,12 @@
     <t>&lt;EncryptedAssertion&gt;</t>
   </si>
   <si>
-    <t>&lt;EncryptedID&gt;</t>
-  </si>
-  <si>
-    <t>Web SSO &lt;Response&gt;, no TLS</t>
-  </si>
-  <si>
     <t>9.1 (2)</t>
   </si>
   <si>
     <t>SHOULD NOT</t>
   </si>
   <si>
-    <t>&lt;EncryptedAttribute&gt;</t>
-  </si>
-  <si>
     <t>9.1 (1) + (3)</t>
   </si>
   <si>
@@ -235,6 +226,30 @@
   </si>
   <si>
     <t>ACS in metadata</t>
+  </si>
+  <si>
+    <t>8.2 (2)</t>
+  </si>
+  <si>
+    <t>MAY ignore</t>
+  </si>
+  <si>
+    <t>8.1 (2)</t>
+  </si>
+  <si>
+    <t>Web SSO Response, no TLS</t>
+  </si>
+  <si>
+    <t>Web SSO Response</t>
+  </si>
+  <si>
+    <t>EncryptedAssertion</t>
+  </si>
+  <si>
+    <t>EncryptedAttribute</t>
+  </si>
+  <si>
+    <t>EncryptedID</t>
   </si>
 </sst>
 </file>
@@ -299,8 +314,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="307">
+  <cellStyleXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -636,7 +677,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="307">
+  <cellStyles count="333">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -790,6 +831,19 @@
     <cellStyle name="Besuchter Link" xfId="302" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="304" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="332" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -943,6 +997,19 @@
     <cellStyle name="Link" xfId="301" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="303" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="331" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2320,17 +2387,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H8" sqref="B1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2359,10 +2427,10 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="str">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="str">
         <f>CONCATENATE("DMFB-00",A2)</f>
         <v>DMFB-001</v>
       </c>
@@ -2372,25 +2440,23 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B9" si="0">CONCATENATE("DMFB-00",A3)</f>
         <v>DMFB-002</v>
       </c>
@@ -2399,140 +2465,165 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <f t="shared" ref="A4:A9" si="1">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DMFB-003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DMFB-004</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DMFB-005</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DMFB-006</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DMFB-007</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <f t="shared" ref="A9" si="2">A8+1</f>
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DMFB-008</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2541,7 +2632,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2642,21 +2733,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="B1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>40</v>
@@ -2665,22 +2756,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F1" s="5" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -2689,21 +2777,20 @@
         <v>DMFB-00100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>101</v>
@@ -2713,19 +2800,20 @@
         <v>DMFB-00101</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A6" si="1">A3+1</f>
         <v>102</v>
@@ -2735,19 +2823,20 @@
         <v>DMFB-00102</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2757,14 +2846,13 @@
         <v>DMFB-00103</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2774,12 +2862,11 @@
         <v>DMFB-00104</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/internal/message flows.xlsx
+++ b/internal/message flows.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23380" yWindow="1420" windowWidth="25840" windowHeight="20380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="23380" yWindow="1420" windowWidth="25840" windowHeight="20380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Impl-MFBAuthN" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="74">
   <si>
     <t>SP</t>
   </si>
@@ -42,12 +42,6 @@
     <t>(cookie)</t>
   </si>
   <si>
-    <t>Web SSO &lt;AuthnRequest&gt;</t>
-  </si>
-  <si>
-    <t>Web SSO &lt;Response&gt;</t>
-  </si>
-  <si>
     <t>Enhanced Client/Proxy SSO</t>
   </si>
   <si>
@@ -87,27 +81,18 @@
     <t>Response signature</t>
   </si>
   <si>
-    <t>Web SSO unsolicited &lt;Response&gt;</t>
-  </si>
-  <si>
     <t>HTTP artifact</t>
   </si>
   <si>
     <t>HTTP POST</t>
   </si>
   <si>
-    <t xml:space="preserve">SLO IdP-initiated &lt;LogoutRequest&gt; </t>
-  </si>
-  <si>
     <t>eGov IOP 2.0</t>
   </si>
   <si>
     <t>saml2int 0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">SLO SP-initiated &lt;LogoutRequest&gt; </t>
-  </si>
-  <si>
     <t>Message signature</t>
   </si>
   <si>
@@ -117,18 +102,12 @@
     <t>375, 384</t>
   </si>
   <si>
-    <t xml:space="preserve">SLO SP-initiated &lt;LogoutResponse&gt; </t>
-  </si>
-  <si>
     <t>Message AuthN</t>
   </si>
   <si>
     <t>Signature</t>
   </si>
   <si>
-    <t xml:space="preserve">SLO IDP-initiated &lt;LogoutResponse&gt; </t>
-  </si>
-  <si>
     <t>405, 410, 414</t>
   </si>
   <si>
@@ -195,24 +174,12 @@
     <t>[SAML-ReqInit]</t>
   </si>
   <si>
-    <t>Assertion Query &lt;AttributeQuery&gt;</t>
-  </si>
-  <si>
     <t>[SAML2Prof] sect. 6</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;EncryptedID&gt; </t>
-  </si>
-  <si>
     <t>HTTP Redirect</t>
   </si>
   <si>
-    <t xml:space="preserve">SLO &lt;LogoutRequest&gt; </t>
-  </si>
-  <si>
-    <t>&lt;EncryptedAssertion&gt;</t>
-  </si>
-  <si>
     <t>9.1 (2)</t>
   </si>
   <si>
@@ -250,6 +217,33 @@
   </si>
   <si>
     <t>EncryptedID</t>
+  </si>
+  <si>
+    <t>Web SSO AuthnRequest</t>
+  </si>
+  <si>
+    <t>Web SSO unsolicited Response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO LogoutRequest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EncryptedID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO SP-initiated LogoutRequest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO IdP-initiated LogoutRequest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO IDP-initiated LogoutResponse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO SP-initiated LogoutResponse </t>
+  </si>
+  <si>
+    <t>Assertion Query AttributeQuery</t>
   </si>
 </sst>
 </file>
@@ -314,8 +308,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="333">
+  <cellStyleXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -677,7 +677,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="333">
+  <cellStyles count="339">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -844,6 +844,9 @@
     <cellStyle name="Besuchter Link" xfId="328" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="330" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="338" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1010,6 +1013,9 @@
     <cellStyle name="Link" xfId="327" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="329" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="337" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1341,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1358,28 +1364,28 @@
     <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J1" s="5"/>
     </row>
@@ -1392,16 +1398,16 @@
         <v>IMFB-001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
@@ -1423,16 +1429,16 @@
         <v>IMFB-002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>1</v>
@@ -1441,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1454,25 +1460,25 @@
         <v>IMFB-003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1485,16 +1491,16 @@
         <v>IMFB-004</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>1</v>
@@ -1503,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1516,16 +1522,16 @@
         <v>IMFB-005</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>1</v>
@@ -1534,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1547,16 +1553,16 @@
         <v>IMFB-006</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>1</v>
@@ -1565,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1578,16 +1584,16 @@
         <v>IMFB-007</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>1</v>
@@ -1596,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1609,25 +1615,25 @@
         <v>IMFB-008</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1640,16 +1646,16 @@
         <v>IMFB-009</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>1</v>
@@ -1658,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1671,16 +1677,16 @@
         <v>IMFB-010</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>1</v>
@@ -1689,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1702,25 +1708,25 @@
         <v>IMFB-011</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1733,16 +1739,16 @@
         <v>IMFB-012</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>1</v>
@@ -1751,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1764,16 +1770,16 @@
         <v>IMFB-013</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>1</v>
@@ -1782,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1795,25 +1801,25 @@
         <v>IMFB-014</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1826,25 +1832,25 @@
         <v>IMFB-015</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1857,25 +1863,25 @@
         <v>IMFB-016</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1888,25 +1894,25 @@
         <v>IMFB-017</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I18" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1919,16 +1925,16 @@
         <v>IMFB-018</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>1</v>
@@ -1937,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1950,16 +1956,16 @@
         <v>IMFB-019</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>1</v>
@@ -1968,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1981,16 +1987,16 @@
         <v>IMFB-020</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2003,13 +2009,13 @@
         <v>IMFB-021</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2022,10 +2028,10 @@
         <v>IMFB-022</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>4</v>
@@ -2041,10 +2047,10 @@
         <v>IMFB-023</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -2060,10 +2066,10 @@
         <v>IMFB-024</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>2</v>
@@ -2079,10 +2085,10 @@
         <v>IMFB-025</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
@@ -2098,10 +2104,10 @@
         <v>IMFB-026</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>2</v>
@@ -2117,10 +2123,10 @@
         <v>IMFB-027</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>4</v>
@@ -2136,7 +2142,7 @@
         <v>IMFB-028</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4"/>
     </row>
@@ -2225,7 +2231,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2239,25 +2245,25 @@
     <row r="1" spans="1:9" ht="24">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -2270,10 +2276,10 @@
         <v>IMFB-100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>62</v>
@@ -2298,19 +2304,19 @@
         <v>IMFB-101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="7">
         <v>293</v>
@@ -2326,19 +2332,19 @@
         <v>IMFB-102</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7">
         <v>293</v>
@@ -2354,13 +2360,13 @@
         <v>IMFB-103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>1</v>
@@ -2404,25 +2410,25 @@
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -2435,7 +2441,7 @@
         <v>DMFB-001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -2448,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2461,18 +2467,18 @@
         <v>DMFB-002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2485,20 +2491,20 @@
         <v>DMFB-003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2511,20 +2517,20 @@
         <v>DMFB-004</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2537,13 +2543,13 @@
         <v>DMFB-005</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
@@ -2552,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2565,22 +2571,22 @@
         <v>DMFB-006</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2593,13 +2599,13 @@
         <v>DMFB-007</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>1</v>
@@ -2608,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2735,7 +2741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G4" sqref="B1:G4"/>
     </sheetView>
   </sheetViews>
@@ -2750,22 +2756,22 @@
     <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2777,17 +2783,17 @@
         <v>DMFB-00100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2800,17 +2806,17 @@
         <v>DMFB-00101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2823,17 +2829,17 @@
         <v>DMFB-00102</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2846,7 +2852,7 @@
         <v>DMFB-00103</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -2862,7 +2868,7 @@
         <v>DMFB-00104</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>

--- a/internal/message flows.xlsx
+++ b/internal/message flows.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23380" yWindow="1420" windowWidth="25840" windowHeight="20380" tabRatio="500"/>
+    <workbookView xWindow="23380" yWindow="1420" windowWidth="25840" windowHeight="20380" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Impl-MFBAuthN" sheetId="1" r:id="rId1"/>
     <sheet name="Impl-MFB-Enc" sheetId="2" r:id="rId2"/>
     <sheet name="Depl-MFB-Authn" sheetId="3" r:id="rId3"/>
     <sheet name="Depl-MFB-Enc" sheetId="4" r:id="rId4"/>
+    <sheet name="04 MD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="97">
   <si>
     <t>SP</t>
   </si>
@@ -244,13 +245,100 @@
   </si>
   <si>
     <t>Assertion Query AttributeQuery</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MUST support the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+      </rPr>
+      <t>&lt;ds:X509Certificate&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> element as key representation int the &lt;md:KeyDescriptor&gt; element</t>
+    </r>
+  </si>
+  <si>
+    <t>Support for other key representations than &lt;ds:X509Certificate&gt;, and for other mechanisms for credential distribution, is OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementations MUST support some form of path validation of signing, TLS, and encryption credentials used to secure SAML exchanges against one or more trusted certificate authorities. </t>
+  </si>
+  <si>
+    <t>[SAML2Meta]</t>
+  </si>
+  <si>
+    <t>Support for PKIX [RFC5280] is RECOMMENDED; implementations SHOULD document the behavior of the validation mechanisms they employ, particular with respect to limitations or divergence from PKIX [RFC5280]</t>
+  </si>
+  <si>
+    <t>Implementations MUST support the use of OCSP [RFC2560] and Certificate Revocation Lists (CRLs) obtained via the "CRL Distribution Point" X.509 extension [RFC5280] for revocation checking of those credentials.</t>
+  </si>
+  <si>
+    <t>Implementations MAY support additional constraints on the contents of certificates used by particular entities, such as "subjectAltName" or "DN", key usage constraints, or policy extensions, but SHOULD document such features and make them optional to enable where possible.</t>
+  </si>
+  <si>
+    <t>[MetaAttr]</t>
+  </si>
+  <si>
+    <t>Implementations SHOULD support the SAML V2.0 Metadata Extension for Entity Attributes Version 1.0 [MetaAttr] and provide policy controls on the basis of SAML attributes supplied via this extension mechanism.</t>
+  </si>
+  <si>
+    <t>eGov 2.0</t>
+  </si>
+  <si>
+    <t>Dispostiion</t>
+  </si>
+  <si>
+    <t>MUST support SAML V2.0 Metadata [SAML2MD] as updated by Errata [SAML2Errata]</t>
+  </si>
+  <si>
+    <t>MUST support SAML V2.0 Metadata Schema [SAML2MD-xsd]</t>
+  </si>
+  <si>
+    <t>Implementations MUST support the SAML V2.0 Metadata Interoperability Profile Version 1.0 [SAML2MDIOP].</t>
+  </si>
+  <si>
+    <t>[SAML2MDIOP]</t>
+  </si>
+  <si>
+    <t>[SAML2MD-xsd]</t>
+  </si>
+  <si>
+    <t>[SAML2MD]</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Support for the generation or exportation of metadata is OPTIONAL.</t>
+  </si>
+  <si>
+    <t>Implementations MUST support the publication of metadata using the Well-Known-Location method defined in section 4.1 of [SAML2Meta] (under the assumption that entityID values used are suitable for such support).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,6 +378,16 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -308,7 +406,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="339">
+  <cellStyleXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -648,8 +746,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -676,8 +800,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="339">
+  <cellStyles count="365">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -847,6 +980,19 @@
     <cellStyle name="Besuchter Link" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="336" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="364" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1016,6 +1162,19 @@
     <cellStyle name="Link" xfId="333" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="335" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="363" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1347,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -2483,7 +2642,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A9" si="1">A3+1</f>
+        <f t="shared" ref="A4:A8" si="1">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="str">
@@ -2742,7 +2901,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="B1:G4"/>
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2883,4 +3042,397 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="108.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>CONCATENATE("MDP-",A2)</f>
+        <v>MDP-100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14" customHeight="1">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B19" si="0">CONCATENATE("MDP-",A3)</f>
+        <v>MDP-101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A19" si="1">A3+1</f>
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="12">
+        <v>163</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16">
+      <c r="A5" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="12">
+        <v>167</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="12">
+        <v>168</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="12">
+        <v>170</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-106</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="12">
+        <v>172</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-107</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="12">
+        <v>176</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-108</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="12">
+        <v>179</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="12">
+        <v>186</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-110</v>
+      </c>
+      <c r="F12" s="12">
+        <v>190</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-111</v>
+      </c>
+      <c r="F13" s="12">
+        <v>191</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDP-117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>